--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t xml:space="preserve">Modelo</t>
   </si>
@@ -41,20 +41,62 @@
   </si>
   <si>
     <t xml:space="preserve">Quant. Camadas da Rede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acurácia Val.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss Val.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MobileNetV3Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.535.093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augm.(20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augm.(10%) + Dropout(50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,9 +156,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -242,42 +308,186 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="0"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.6071</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.9501</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.5429</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.009566</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.1293</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.3714</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="0"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="1"/>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="0"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1"/>
+      <c r="K6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
